--- a/config/apicaseadmin.xlsx
+++ b/config/apicaseadmin.xlsx
@@ -5090,7 +5090,7 @@
       <c r="L55" s="7" t="n"/>
       <c r="M55" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       <c r="L59" s="7" t="n"/>
       <c r="M59" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -9479,7 +9479,7 @@
       <c r="L117" s="7" t="n"/>
       <c r="M117" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>

--- a/config/apicaseadmin.xlsx
+++ b/config/apicaseadmin.xlsx
@@ -5509,7 +5509,7 @@
       <c r="L61" s="7" t="n"/>
       <c r="M61" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>

--- a/config/apicaseadmin.xlsx
+++ b/config/apicaseadmin.xlsx
@@ -2877,7 +2877,7 @@
       <c r="L24" s="7" t="n"/>
       <c r="M24" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       <c r="L55" s="7" t="n"/>
       <c r="M55" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       <c r="L59" s="7" t="n"/>
       <c r="M59" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       <c r="L61" s="7" t="n"/>
       <c r="M61" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>

--- a/config/apicaseadmin.xlsx
+++ b/config/apicaseadmin.xlsx
@@ -2047,7 +2047,7 @@
       <c r="L13" s="7" t="n"/>
       <c r="M13" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       <c r="L24" s="7" t="n"/>
       <c r="M24" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>

--- a/config/apicaseadmin.xlsx
+++ b/config/apicaseadmin.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="612">
   <si>
     <t>module</t>
   </si>
@@ -573,7 +573,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>1834852667793346944</t>
+    <t>1836117379029930624</t>
   </si>
   <si>
     <t>编辑导案模板</t>
@@ -612,7 +612,7 @@
     <t>["list","name","test自动化还款"]</t>
   </si>
   <si>
-    <t>1834852721027453568</t>
+    <t>1836117428237505152</t>
   </si>
   <si>
     <t>编辑还款模板</t>
@@ -651,7 +651,7 @@
     <t>["list","name","test自动化退案"]</t>
   </si>
   <si>
-    <t>1834852765084422784</t>
+    <t>1836117471170400640</t>
   </si>
   <si>
     <t>编辑退案模板</t>
@@ -1299,19 +1299,19 @@
     <t>新建话术</t>
   </si>
   <si>
-    <t>{"method":"business_manager_add_strategy","timestamp":"2021-04-24 18:08:29","data":{"ringingTime":55000,"ttsModelId":"3","asrModelId":"1","agentId":"1219987454635802624","wordsInterruption":"disable","keyInterruption":"disable","msProviderId":"2","name":"test自动化话术","merchantId":"1523372240188346368","productId":"1594331308341858304","mappingFileId":"1830429514748924416","speechFileId":"1830429447589728896","mappingVos":[{"fieldName":"姓名","fieldCode":"name","isFill":"no"},{"fieldName":"年龄","fieldCode":"age","isFill":"no"},{"fieldName":"性别","fieldCode":"sex","isFill":"no"},{"fieldName":"证件类型","fieldCode":"idType","isFill":"no"},{"fieldName":"证件号码","fieldCode":"idNumber","isFill":"no"},{"fieldName":"手机1","fieldCode":"firstPhone","isFill":"no"},{"fieldName":"手机2","fieldCode":"secondPhone","isFill":"no"},{"fieldName":"家庭电话","fieldCode":"homePhone","isFill":"no"},{"fieldName":"公司电话","fieldCode":"companyPhone","isFill":"no"},{"fieldName":"客户商户编号","fieldCode":"customerMerCode","isFill":"no"},{"fieldName":"户籍省份","fieldCode":"registeredProvince","isFill":"no"},{"fieldName":"户籍城市","fieldCode":"registeredCity","isFill":"no"},{"fieldName":"户籍地址","fieldCode":"registeredAddress","isFill":"no"},{"fieldName":"婚姻状态","fieldCode":"marriageStatus","isFill":"no"},{"fieldName":"文化程度","fieldCode":"educationLevel","isFill":"no"},{"fieldName":"年收入","fieldCode":"annualIncome","isFill":"no"},{"fieldName":"账号","fieldCode":"account","isFill":"no"},{"fieldName":"卡号","fieldCode":"card","isFill":"no"},{"fieldName":"批次号","fieldCode":"packetMerCode","isFill":"no"},{"fieldName":"逾期天数","fieldCode":"overdueDay","isFill":"no"},{"fieldName":"委托金额","fieldCode":"commitMoney","isFill":"no"},{"fieldName":"委托时间","fieldCode":"commitDate","isFill":"no"},{"fieldName":"退案时间","fieldCode":"limitDate","isFill":"no"},{"fieldName":"币种","fieldCode":"currency","isFill":"no"},{"fieldName":"取现额度","fieldCode":"cashAmount","isFill":"no"},{"fieldName":"逾期日期","fieldCode":"overdueDate","isFill":"no"},{"fieldName":"最低还款额","fieldCode":"minRepaymentAmount","isFill":"no"},{"fieldName":"进件号","fieldCode":"enterBillCode","isFill":"no"},{"fieldName":"到期还款日","fieldCode":"limitRepayDate","isFill":"no"},{"fieldName":"产品名称","fieldCode":"thirdProductName","isFill":"no"}]}}</t>
+    <t>{"method":"business_manager_add_strategy","timestamp":"2021-04-24 18:08:29","data":{"ringingTime":55000,"ttsModelId":"3","asrModelId":"1","agentId":"1219987454635802624","wordsInterruption":"disable","keyInterruption":"disable","msProviderId":"2","name":"testauto话术","merchantId":"1523372240188346368","productId":"1594331308341858304","mappingFileId":"1830429514748924416","speechFileId":"1830429447589728896","mappingVos":[{"fieldName":"姓名","fieldCode":"name","isFill":"no"},{"fieldName":"年龄","fieldCode":"age","isFill":"no"},{"fieldName":"性别","fieldCode":"sex","isFill":"no"},{"fieldName":"证件类型","fieldCode":"idType","isFill":"no"},{"fieldName":"证件号码","fieldCode":"idNumber","isFill":"no"},{"fieldName":"手机1","fieldCode":"firstPhone","isFill":"no"},{"fieldName":"手机2","fieldCode":"secondPhone","isFill":"no"},{"fieldName":"家庭电话","fieldCode":"homePhone","isFill":"no"},{"fieldName":"公司电话","fieldCode":"companyPhone","isFill":"no"},{"fieldName":"客户商户编号","fieldCode":"customerMerCode","isFill":"no"},{"fieldName":"户籍省份","fieldCode":"registeredProvince","isFill":"no"},{"fieldName":"户籍城市","fieldCode":"registeredCity","isFill":"no"},{"fieldName":"户籍地址","fieldCode":"registeredAddress","isFill":"no"},{"fieldName":"婚姻状态","fieldCode":"marriageStatus","isFill":"no"},{"fieldName":"文化程度","fieldCode":"educationLevel","isFill":"no"},{"fieldName":"年收入","fieldCode":"annualIncome","isFill":"no"},{"fieldName":"账号","fieldCode":"account","isFill":"no"},{"fieldName":"卡号","fieldCode":"card","isFill":"no"},{"fieldName":"批次号","fieldCode":"packetMerCode","isFill":"no"},{"fieldName":"逾期天数","fieldCode":"overdueDay","isFill":"no"},{"fieldName":"委托金额","fieldCode":"commitMoney","isFill":"no"},{"fieldName":"委托时间","fieldCode":"commitDate","isFill":"no"},{"fieldName":"退案时间","fieldCode":"limitDate","isFill":"no"},{"fieldName":"币种","fieldCode":"currency","isFill":"no"},{"fieldName":"取现额度","fieldCode":"cashAmount","isFill":"no"},{"fieldName":"逾期日期","fieldCode":"overdueDate","isFill":"no"},{"fieldName":"最低还款额","fieldCode":"minRepaymentAmount","isFill":"no"},{"fieldName":"进件号","fieldCode":"enterBillCode","isFill":"no"},{"fieldName":"到期还款日","fieldCode":"limitRepayDate","isFill":"no"},{"fieldName":"产品名称","fieldCode":"thirdProductName","isFill":"no"}]}}</t>
   </si>
   <si>
     <t>查询新建并获取id</t>
   </si>
   <si>
-    <t>{"method":"business_manager_query_strategy_page","timestamp":"2021-04-24 18:09:03","data":{"currentPage":1,"pageSize":15,"name":"test自动化话术"}}</t>
-  </si>
-  <si>
-    <t>["list","name","test自动化话术"]</t>
-  </si>
-  <si>
-    <t>1830436327288475904</t>
+    <t>{"method":"business_manager_query_strategy_page","timestamp":"2021-04-24 18:09:03","data":{"currentPage":1,"pageSize":15,"name":"testauto话术"}}</t>
+  </si>
+  <si>
+    <t>["list","name","testauto话术"]</t>
+  </si>
+  <si>
+    <t>1836117986633585152</t>
   </si>
   <si>
     <t>修改模型</t>
@@ -1329,7 +1329,7 @@
     <t>修改名称</t>
   </si>
   <si>
-    <t>{"method":"business_manager_update_strategy_name","timestamp":"2021-04-24 18:11:15","data":{"name":"test自动化话术","merchantId":"1523372240188346368","productId":"1594331308341858304","id":"${strategyid}"}}</t>
+    <t>{"method":"business_manager_update_strategy_name","timestamp":"2021-04-24 18:11:15","data":{"name":"testauto话术","merchantId":"1523372240188346368","productId":"1594331308341858304","id":"${strategyid}"}}</t>
   </si>
   <si>
     <t>下载话术模板</t>
@@ -1359,25 +1359,28 @@
     <t>文本测试</t>
   </si>
   <si>
-    <t>{"method":"business_manager_process_test","timestamp":"2021-04-24 18:13:27","data":{"question":"是的","taskId":"1830434616549314816"}}</t>
-  </si>
-  <si>
-    <t>["hitNode","AI-1-01"]</t>
+    <t>{"method":"business_manager_start_prologue","timestamp":"2021-04-28 16:23:14","data":{"strategyId":"${strategyid}"}}</t>
+  </si>
+  <si>
+    <t>["contentText","硒你好，硒这里是广州农商银行信用卡中心，硒你是张三先生硒对吧？"]</t>
   </si>
   <si>
     <t>复制策略</t>
   </si>
   <si>
-    <t>{"method":"business_manager_copy_strategy","timestamp":"2021-04-24 18:15:06","data":{"id":"${strategyid}","name":"test自动化话术"}}</t>
+    <t>{"method":"business_manager_copy_strategy","timestamp":"2021-04-24 18:15:06","data":{"id":"${strategyid}","name":"testauto话术"}}</t>
   </si>
   <si>
     <t>查询复制后的策略并获取id</t>
   </si>
   <si>
-    <t>{"method":"business_manager_query_strategy_page","timestamp":"2021-04-24 18:18:33","data":{"currentPage":1,"pageSize":15,"name":"test自动化话术副本"}}</t>
-  </si>
-  <si>
-    <t>["list","name","test自动化话术副本"]</t>
+    <t>{"method":"business_manager_query_strategy_page","timestamp":"2021-04-24 18:18:33","data":{"currentPage":1,"pageSize":15,"name":"testauto话术副本"}}</t>
+  </si>
+  <si>
+    <t>["list","name","testauto话术副本"]</t>
+  </si>
+  <si>
+    <t>1836118069982794240</t>
   </si>
   <si>
     <t>删除策略</t>
@@ -1407,7 +1410,7 @@
     <t>["name","测试自动化变量"]</t>
   </si>
   <si>
-    <t>39</t>
+    <t>41</t>
   </si>
   <si>
     <t>变量新增重复</t>
@@ -1509,7 +1512,7 @@
     <t>["list","accessCode","123123"]</t>
   </si>
   <si>
-    <t>1834853388225581696</t>
+    <t>1836118148418081024</t>
   </si>
   <si>
     <t>查询线路供应商</t>
@@ -1671,7 +1674,7 @@
     <t>["list","did","123123"]</t>
   </si>
   <si>
-    <t>1834853536014274688</t>
+    <t>1836118261947699200</t>
   </si>
   <si>
     <t>查询时间</t>
@@ -1749,7 +1752,7 @@
     <t>["list","groupName","测试自动化分组"]</t>
   </si>
   <si>
-    <t>1834853587387912192</t>
+    <t>1836118315301048320</t>
   </si>
   <si>
     <t>删除分组</t>
@@ -1782,7 +1785,7 @@
     <t>["list","name","测试自动化供应商"]</t>
   </si>
   <si>
-    <t>1834853608862749312</t>
+    <t>1836118336004132864</t>
   </si>
   <si>
     <t>{"method":"call_line_supplier_update_line_supplier","timestamp":"2021-04-02 17:19:06","data":{"id":"${linesupplierid}","name":"测试自动化供应商","dailyLimit":1,"remark":"测试一下"}}</t>
@@ -1807,6 +1810,9 @@
   </si>
   <si>
     <t>["list","libName","测试自动化音库"]</t>
+  </si>
+  <si>
+    <t>1836118370882162816</t>
   </si>
   <si>
     <t>查询发音人</t>
@@ -1850,63 +1856,63 @@
     <t>["list","usedStatusStr","启用"]</t>
   </si>
   <si>
+    <t>新增录音</t>
+  </si>
+  <si>
+    <t>{"method":"tts_speech_unit_add","timestamp":"2021-04-26 09:46:04","data":{"libraryId":"${libraryid}","originUnit":"测试","resourceId":"1832822992749466112"}}</t>
+  </si>
+  <si>
+    <t>查询音频并获取id</t>
+  </si>
+  <si>
+    <t>{"method":"tts_speech_unit_get_page_list","timestamp":"2021-04-07 15:17:35","data":{"originUnit":"测试","unitType":"sentences","libraryId":"${libraryid}","currentPage":1,"pageSize":15}}</t>
+  </si>
+  <si>
+    <t>["list","originUnit","测试"]</t>
+  </si>
+  <si>
+    <t>1836118415157236096</t>
+  </si>
+  <si>
+    <t>禁用录音</t>
+  </si>
+  <si>
+    <t>{"method":"tts_speech_unit_update","timestamp":"2021-04-07 15:20:33","data":{"id":"${soundid}","libraryId":"${libraryid}","usedStatus":"disable"}}</t>
+  </si>
+  <si>
+    <t>查询音频状态禁用</t>
+  </si>
+  <si>
+    <t>{"method":"tts_speech_unit_get_page_list","timestamp":"2021-04-07 15:20:56","data":{"originUnit":"测试","usedStatus":"disable","unitType":"sentences","libraryId":"${libraryid}","currentPage":1,"pageSize":15}}</t>
+  </si>
+  <si>
+    <t>启用录音</t>
+  </si>
+  <si>
+    <t>{"method":"tts_speech_unit_update","timestamp":"2021-04-07 15:21:19","data":{"id":"${soundid}","libraryId":"${libraryid}","usedStatus":"enable"}}</t>
+  </si>
+  <si>
+    <t>查询音频状态启用</t>
+  </si>
+  <si>
+    <t>{"method":"tts_speech_unit_get_page_list","timestamp":"2021-04-07 15:20:56","data":{"originUnit":"测试","usedStatus":"enable","unitType":"sentences","libraryId":"${libraryid}","currentPage":1,"pageSize":15}}</t>
+  </si>
+  <si>
+    <t>编辑录音</t>
+  </si>
+  <si>
+    <t>{"method":"tts_speech_unit_update","timestamp":"2021-04-08 17:12:42","data":{"libraryId":"${libraryid}","originUnit":"测试","resourceId":"1832822992749466112","id":"${soundid}","unitType":"sentences"}}</t>
+  </si>
+  <si>
+    <t>试听</t>
+  </si>
+  <si>
+    <t>{"method":"get_file_online_url","timestamp":"2021-04-08 17:14:14","data":{"resourceId":"1832822992749466112"}}</t>
+  </si>
+  <si>
     <t>{"method":"tts_speech_unit_get_page_list","timestamp":"2021-04-07 14:38:07","data":{"unitType":"sentences","libraryId":"${libraryid}","currentPage":1,"pageSize":15}}</t>
   </si>
   <si>
-    <t>["list","speaker","30015"]</t>
-  </si>
-  <si>
-    <t>新增录音</t>
-  </si>
-  <si>
-    <t>{"method":"tts_speech_unit_add","timestamp":"2021-04-26 09:46:04","data":{"libraryId":"${libraryid}","originUnit":"测试","resourceId":"1832822992749466112"}}</t>
-  </si>
-  <si>
-    <t>查询音频并获取id</t>
-  </si>
-  <si>
-    <t>{"method":"tts_speech_unit_get_page_list","timestamp":"2021-04-07 15:17:35","data":{"originUnit":"测试","unitType":"sentences","libraryId":"${libraryid}","currentPage":1,"pageSize":15}}</t>
-  </si>
-  <si>
-    <t>["list","originUnit","测试"]</t>
-  </si>
-  <si>
-    <t>禁用录音</t>
-  </si>
-  <si>
-    <t>{"method":"tts_speech_unit_update","timestamp":"2021-04-07 15:20:33","data":{"id":"${soundid}","libraryId":"${libraryid}","usedStatus":"disable"}}</t>
-  </si>
-  <si>
-    <t>查询音频状态禁用</t>
-  </si>
-  <si>
-    <t>{"method":"tts_speech_unit_get_page_list","timestamp":"2021-04-07 15:20:56","data":{"originUnit":"测试","usedStatus":"disable","unitType":"sentences","libraryId":"${libraryid}","currentPage":1,"pageSize":15}}</t>
-  </si>
-  <si>
-    <t>启用录音</t>
-  </si>
-  <si>
-    <t>{"method":"tts_speech_unit_update","timestamp":"2021-04-07 15:21:19","data":{"id":"${soundid}","libraryId":"${libraryid}","usedStatus":"enable"}}</t>
-  </si>
-  <si>
-    <t>查询音频状态启用</t>
-  </si>
-  <si>
-    <t>{"method":"tts_speech_unit_get_page_list","timestamp":"2021-04-07 15:20:56","data":{"originUnit":"测试","usedStatus":"enable","unitType":"sentences","libraryId":"${libraryid}","currentPage":1,"pageSize":15}}</t>
-  </si>
-  <si>
-    <t>编辑录音</t>
-  </si>
-  <si>
-    <t>{"method":"tts_speech_unit_update","timestamp":"2021-04-08 17:12:42","data":{"libraryId":"${libraryid}","originUnit":"测试","resourceId":"1832822992749466112","id":"${soundid}","unitType":"sentences"}}</t>
-  </si>
-  <si>
-    <t>试听</t>
-  </si>
-  <si>
-    <t>{"method":"get_file_online_url","timestamp":"2021-04-08 17:14:14","data":{"resourceId":"1832822992749466112"}}</t>
-  </si>
-  <si>
     <t>删除录音</t>
   </si>
   <si>
@@ -2222,7 +2228,7 @@
     <t>["list","phone","13133333333"]</t>
   </si>
   <si>
-    <t>1834853896355319936</t>
+    <t>1836118671177552256</t>
   </si>
   <si>
     <t>查询原因</t>
@@ -2251,9 +2257,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2280,7 +2286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2294,16 +2300,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2323,11 +2337,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2363,9 +2376,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2379,14 +2391,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2396,21 +2408,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2437,7 +2443,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2449,31 +2545,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2485,61 +2575,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,73 +2623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2687,6 +2693,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2714,23 +2729,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2750,11 +2750,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2777,10 +2783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -2789,37 +2795,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -2828,94 +2831,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="9">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="8">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3355,9 +3361,9 @@
   <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J204" sqref="J204"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5"/>
@@ -7191,7 +7197,7 @@
       <c r="K109" s="21"/>
       <c r="L109" s="11"/>
       <c r="M109" s="13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
@@ -7229,7 +7235,9 @@
       <c r="L110" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="M110" s="13"/>
+      <c r="M110" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="111" ht="30" customHeight="1" spans="1:13">
       <c r="A111" s="9" t="s">
@@ -7508,7 +7516,7 @@
       <c r="K118" s="21"/>
       <c r="L118" s="11"/>
       <c r="M118" s="13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" ht="30" customHeight="1" spans="1:13">
@@ -7579,9 +7587,11 @@
         <v>119</v>
       </c>
       <c r="L120" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="M120" s="13"/>
+        <v>324</v>
+      </c>
+      <c r="M120" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="121" ht="30" customHeight="1" spans="1:13">
       <c r="A121" s="9" t="s">
@@ -7591,7 +7601,7 @@
         <v>302</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>15</v>
@@ -7603,7 +7613,7 @@
         <v>17</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H121" s="14" t="s">
         <v>19</v>
@@ -7626,7 +7636,7 @@
         <v>303</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>15</v>
@@ -7649,7 +7659,9 @@
       </c>
       <c r="K122" s="21"/>
       <c r="L122" s="11"/>
-      <c r="M122" s="13"/>
+      <c r="M122" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="123" ht="30" customHeight="1" spans="1:13">
       <c r="A123" s="9" t="s">
@@ -7659,7 +7671,7 @@
         <v>304</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>15</v>
@@ -7671,10 +7683,10 @@
         <v>17</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="13" t="s">
@@ -7694,7 +7706,7 @@
         <v>305</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>15</v>
@@ -7706,20 +7718,20 @@
         <v>17</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H124" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K124" s="21" t="s">
         <v>119</v>
       </c>
       <c r="L124" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M124" s="13" t="s">
         <v>21</v>
@@ -7733,7 +7745,7 @@
         <v>306</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>15</v>
@@ -7745,13 +7757,13 @@
         <v>17</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J125" s="13"/>
       <c r="K125" s="21"/>
@@ -7768,7 +7780,7 @@
         <v>307</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>15</v>
@@ -7780,7 +7792,7 @@
         <v>17</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H126" s="14" t="s">
         <v>19</v>
@@ -7803,7 +7815,7 @@
         <v>308</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>15</v>
@@ -7815,7 +7827,7 @@
         <v>17</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H127" s="14" t="s">
         <v>19</v>
@@ -7832,13 +7844,13 @@
     </row>
     <row r="128" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A128" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B128" s="9">
         <v>309</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D128" s="20" t="s">
         <v>15</v>
@@ -7850,13 +7862,13 @@
         <v>17</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J128" s="18"/>
       <c r="K128" s="22"/>
@@ -7867,13 +7879,13 @@
     </row>
     <row r="129" ht="30" customHeight="1" spans="1:13">
       <c r="A129" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B129" s="9">
         <v>310</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>15</v>
@@ -7885,7 +7897,7 @@
         <v>17</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H129" s="14" t="s">
         <v>19</v>
@@ -7902,13 +7914,13 @@
     </row>
     <row r="130" ht="30" customHeight="1" spans="1:13">
       <c r="A130" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B130" s="9">
         <v>311</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>15</v>
@@ -7920,14 +7932,14 @@
         <v>17</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H130" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I130" s="13"/>
       <c r="J130" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K130" s="21"/>
       <c r="L130" s="11"/>
@@ -7937,13 +7949,13 @@
     </row>
     <row r="131" ht="30" customHeight="1" spans="1:13">
       <c r="A131" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B131" s="9">
         <v>312</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>15</v>
@@ -7955,13 +7967,13 @@
         <v>17</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J131" s="13"/>
       <c r="K131" s="21"/>
@@ -7972,13 +7984,13 @@
     </row>
     <row r="132" ht="30" customHeight="1" spans="1:13">
       <c r="A132" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B132" s="9">
         <v>313</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>15</v>
@@ -7990,14 +8002,14 @@
         <v>17</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H132" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I132" s="13"/>
       <c r="J132" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K132" s="21"/>
       <c r="L132" s="11"/>
@@ -8007,13 +8019,13 @@
     </row>
     <row r="133" ht="30" customHeight="1" spans="1:13">
       <c r="A133" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B133" s="9">
         <v>314</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D133" s="11" t="s">
         <v>15</v>
@@ -8025,7 +8037,7 @@
         <v>17</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H133" s="14" t="s">
         <v>19</v>
@@ -8042,13 +8054,13 @@
     </row>
     <row r="134" ht="30" customHeight="1" spans="1:13">
       <c r="A134" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B134" s="9">
         <v>315</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>15</v>
@@ -8060,7 +8072,7 @@
         <v>17</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H134" s="14" t="s">
         <v>19</v>
@@ -8077,13 +8089,13 @@
     </row>
     <row r="135" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A135" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B135" s="9">
         <v>316</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D135" s="20" t="s">
         <v>15</v>
@@ -8095,7 +8107,7 @@
         <v>17</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H135" s="19" t="s">
         <v>19</v>
@@ -8112,13 +8124,13 @@
     </row>
     <row r="136" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A136" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B136" s="9">
         <v>317</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D136" s="20" t="s">
         <v>15</v>
@@ -8130,20 +8142,20 @@
         <v>17</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H136" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I136" s="18"/>
       <c r="J136" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K136" s="22" t="s">
         <v>119</v>
       </c>
       <c r="L136" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M136" s="18" t="s">
         <v>21</v>
@@ -8151,13 +8163,13 @@
     </row>
     <row r="137" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A137" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B137" s="9">
         <v>318</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D137" s="20" t="s">
         <v>15</v>
@@ -8169,14 +8181,14 @@
         <v>17</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H137" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I137" s="18"/>
       <c r="J137" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K137" s="22"/>
       <c r="L137" s="20"/>
@@ -8186,13 +8198,13 @@
     </row>
     <row r="138" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A138" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B138" s="9">
         <v>319</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>15</v>
@@ -8204,14 +8216,14 @@
         <v>17</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H138" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I138" s="18"/>
       <c r="J138" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K138" s="22"/>
       <c r="L138" s="20"/>
@@ -8221,13 +8233,13 @@
     </row>
     <row r="139" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A139" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B139" s="9">
         <v>320</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>15</v>
@@ -8239,14 +8251,14 @@
         <v>17</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H139" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I139" s="18"/>
       <c r="J139" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K139" s="22"/>
       <c r="L139" s="20"/>
@@ -8256,13 +8268,13 @@
     </row>
     <row r="140" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A140" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B140" s="9">
         <v>321</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>15</v>
@@ -8274,14 +8286,14 @@
         <v>17</v>
       </c>
       <c r="G140" s="18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H140" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I140" s="18"/>
       <c r="J140" s="18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K140" s="22"/>
       <c r="L140" s="20"/>
@@ -8291,13 +8303,13 @@
     </row>
     <row r="141" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A141" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B141" s="9">
         <v>322</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>15</v>
@@ -8309,30 +8321,30 @@
         <v>17</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H141" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I141" s="18"/>
       <c r="J141" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K141" s="22"/>
       <c r="L141" s="20"/>
       <c r="M141" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A142" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B142" s="9">
         <v>323</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D142" s="20" t="s">
         <v>15</v>
@@ -8344,7 +8356,7 @@
         <v>17</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H142" s="19" t="s">
         <v>19</v>
@@ -8361,13 +8373,13 @@
     </row>
     <row r="143" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A143" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B143" s="9">
         <v>324</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>15</v>
@@ -8379,7 +8391,7 @@
         <v>17</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H143" s="19" t="s">
         <v>19</v>
@@ -8396,13 +8408,13 @@
     </row>
     <row r="144" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A144" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B144" s="9">
         <v>325</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>15</v>
@@ -8414,14 +8426,14 @@
         <v>17</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H144" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I144" s="18"/>
       <c r="J144" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K144" s="22"/>
       <c r="L144" s="20"/>
@@ -8431,13 +8443,13 @@
     </row>
     <row r="145" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A145" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B145" s="9">
         <v>326</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>15</v>
@@ -8449,7 +8461,7 @@
         <v>17</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H145" s="19" t="s">
         <v>19</v>
@@ -8466,13 +8478,13 @@
     </row>
     <row r="146" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A146" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B146" s="9">
         <v>327</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>15</v>
@@ -8484,14 +8496,14 @@
         <v>17</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H146" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I146" s="18"/>
       <c r="J146" s="18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K146" s="22"/>
       <c r="L146" s="20"/>
@@ -8501,13 +8513,13 @@
     </row>
     <row r="147" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A147" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B147" s="9">
         <v>328</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>15</v>
@@ -8519,7 +8531,7 @@
         <v>17</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H147" s="19" t="s">
         <v>19</v>
@@ -8536,13 +8548,13 @@
     </row>
     <row r="148" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A148" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B148" s="9">
         <v>329</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>15</v>
@@ -8554,7 +8566,7 @@
         <v>17</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H148" s="19" t="s">
         <v>19</v>
@@ -8571,13 +8583,13 @@
     </row>
     <row r="149" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A149" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B149" s="9">
         <v>330</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D149" s="20" t="s">
         <v>15</v>
@@ -8589,14 +8601,14 @@
         <v>17</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H149" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I149" s="18"/>
       <c r="J149" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K149" s="22"/>
       <c r="L149" s="20"/>
@@ -8606,13 +8618,13 @@
     </row>
     <row r="150" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A150" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B150" s="9">
         <v>331</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D150" s="20" t="s">
         <v>15</v>
@@ -8624,7 +8636,7 @@
         <v>17</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H150" s="19" t="s">
         <v>19</v>
@@ -8641,13 +8653,13 @@
     </row>
     <row r="151" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A151" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B151" s="9">
         <v>332</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D151" s="20" t="s">
         <v>15</v>
@@ -8659,14 +8671,14 @@
         <v>17</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H151" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I151" s="18"/>
       <c r="J151" s="18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K151" s="22"/>
       <c r="L151" s="20"/>
@@ -8676,13 +8688,13 @@
     </row>
     <row r="152" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A152" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B152" s="9">
         <v>333</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D152" s="20" t="s">
         <v>15</v>
@@ -8694,7 +8706,7 @@
         <v>17</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H152" s="19" t="s">
         <v>19</v>
@@ -8711,13 +8723,13 @@
     </row>
     <row r="153" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A153" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B153" s="9">
         <v>334</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D153" s="20" t="s">
         <v>15</v>
@@ -8729,14 +8741,14 @@
         <v>17</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H153" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I153" s="18"/>
       <c r="J153" s="18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K153" s="22"/>
       <c r="L153" s="20"/>
@@ -8746,13 +8758,13 @@
     </row>
     <row r="154" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A154" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B154" s="9">
         <v>335</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D154" s="20" t="s">
         <v>15</v>
@@ -8764,7 +8776,7 @@
         <v>17</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H154" s="19" t="s">
         <v>19</v>
@@ -8781,13 +8793,13 @@
     </row>
     <row r="155" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A155" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B155" s="9">
         <v>336</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>15</v>
@@ -8799,10 +8811,10 @@
         <v>17</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I155" s="13"/>
       <c r="J155" s="13" t="s">
@@ -8816,31 +8828,31 @@
     </row>
     <row r="156" ht="30" customHeight="1" spans="1:13">
       <c r="A156" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B156" s="9">
         <v>337</v>
       </c>
       <c r="C156" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="H156" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="D156" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F156" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G156" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="H156" s="14" t="s">
-        <v>414</v>
-      </c>
       <c r="I156" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J156" s="23"/>
       <c r="K156" s="21"/>
@@ -8851,13 +8863,13 @@
     </row>
     <row r="157" ht="30" customHeight="1" spans="1:13">
       <c r="A157" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B157" s="9">
         <v>338</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>15</v>
@@ -8869,20 +8881,20 @@
         <v>17</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H157" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I157" s="13"/>
       <c r="J157" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K157" s="21" t="s">
         <v>119</v>
       </c>
       <c r="L157" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M157" s="13" t="s">
         <v>21</v>
@@ -8890,13 +8902,13 @@
     </row>
     <row r="158" ht="30" customHeight="1" spans="1:13">
       <c r="A158" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B158" s="9">
         <v>339</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>15</v>
@@ -8908,30 +8920,30 @@
         <v>17</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H158" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I158" s="13"/>
       <c r="J158" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K158" s="21"/>
       <c r="L158" s="11"/>
       <c r="M158" s="13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" ht="30" customHeight="1" spans="1:13">
       <c r="A159" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B159" s="9">
         <v>340</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>15</v>
@@ -8943,7 +8955,7 @@
         <v>17</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H159" s="14" t="s">
         <v>19</v>
@@ -8960,13 +8972,13 @@
     </row>
     <row r="160" ht="30" customHeight="1" spans="1:13">
       <c r="A160" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B160" s="9">
         <v>341</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>15</v>
@@ -8978,7 +8990,7 @@
         <v>17</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H160" s="14" t="s">
         <v>19</v>
@@ -8995,13 +9007,13 @@
     </row>
     <row r="161" ht="30" customHeight="1" spans="1:13">
       <c r="A161" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B161" s="9">
         <v>342</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>15</v>
@@ -9013,14 +9025,14 @@
         <v>17</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H161" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I161" s="13"/>
       <c r="J161" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K161" s="21"/>
       <c r="L161" s="11"/>
@@ -9030,13 +9042,13 @@
     </row>
     <row r="162" ht="30" customHeight="1" spans="1:13">
       <c r="A162" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B162" s="9">
         <v>343</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>15</v>
@@ -9048,7 +9060,7 @@
         <v>17</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H162" s="14" t="s">
         <v>19</v>
@@ -9065,13 +9077,13 @@
     </row>
     <row r="163" ht="30" customHeight="1" spans="1:13">
       <c r="A163" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B163" s="9">
         <v>344</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>15</v>
@@ -9083,7 +9095,7 @@
         <v>17</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H163" s="14" t="s">
         <v>19</v>
@@ -9100,13 +9112,13 @@
     </row>
     <row r="164" ht="30" customHeight="1" spans="1:13">
       <c r="A164" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B164" s="9">
         <v>345</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>15</v>
@@ -9118,14 +9130,14 @@
         <v>17</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H164" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I164" s="13"/>
       <c r="J164" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K164" s="21"/>
       <c r="L164" s="11"/>
@@ -9135,13 +9147,13 @@
     </row>
     <row r="165" ht="30" customHeight="1" spans="1:13">
       <c r="A165" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B165" s="9">
         <v>346</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>15</v>
@@ -9153,7 +9165,7 @@
         <v>17</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H165" s="14" t="s">
         <v>19</v>
@@ -9168,13 +9180,13 @@
     </row>
     <row r="166" ht="30" customHeight="1" spans="1:13">
       <c r="A166" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B166" s="9">
         <v>347</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>15</v>
@@ -9186,10 +9198,10 @@
         <v>17</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I166" s="13"/>
       <c r="J166" s="13" t="s">
@@ -9203,31 +9215,31 @@
     </row>
     <row r="167" ht="30" customHeight="1" spans="1:13">
       <c r="A167" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B167" s="9">
         <v>348</v>
       </c>
       <c r="C167" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="H167" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="D167" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="H167" s="14" t="s">
-        <v>441</v>
-      </c>
       <c r="I167" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J167" s="13"/>
       <c r="K167" s="21"/>
@@ -9238,13 +9250,13 @@
     </row>
     <row r="168" ht="30" customHeight="1" spans="1:13">
       <c r="A168" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B168" s="9">
         <v>349</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>15</v>
@@ -9256,20 +9268,20 @@
         <v>17</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H168" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I168" s="13"/>
       <c r="J168" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K168" s="21" t="s">
         <v>119</v>
       </c>
       <c r="L168" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M168" s="13" t="s">
         <v>21</v>
@@ -9277,13 +9289,13 @@
     </row>
     <row r="169" ht="30" customHeight="1" spans="1:13">
       <c r="A169" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B169" s="9">
         <v>350</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>15</v>
@@ -9295,7 +9307,7 @@
         <v>17</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H169" s="14" t="s">
         <v>19</v>
@@ -9318,7 +9330,7 @@
         <v>351</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>15</v>
@@ -9330,7 +9342,7 @@
         <v>17</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H170" s="14" t="s">
         <v>19</v>
@@ -9353,25 +9365,25 @@
         <v>352</v>
       </c>
       <c r="C171" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="D171" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E171" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F171" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G171" s="13" t="s">
-        <v>451</v>
-      </c>
       <c r="H171" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J171" s="13"/>
       <c r="K171" s="21"/>
@@ -9388,7 +9400,7 @@
         <v>353</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>15</v>
@@ -9400,20 +9412,20 @@
         <v>17</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H172" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I172" s="13"/>
       <c r="J172" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K172" s="21" t="s">
         <v>119</v>
       </c>
       <c r="L172" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M172" s="13" t="s">
         <v>21</v>
@@ -9427,7 +9439,7 @@
         <v>354</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>15</v>
@@ -9439,7 +9451,7 @@
         <v>17</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H173" s="14" t="s">
         <v>19</v>
@@ -9462,7 +9474,7 @@
         <v>355</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>15</v>
@@ -9474,7 +9486,7 @@
         <v>17</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H174" s="14" t="s">
         <v>19</v>
@@ -9491,13 +9503,13 @@
     </row>
     <row r="175" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A175" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B175" s="9">
         <v>356</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D175" s="20" t="s">
         <v>15</v>
@@ -9509,10 +9521,10 @@
         <v>17</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I175" s="18"/>
       <c r="J175" s="13" t="s">
@@ -9521,18 +9533,18 @@
       <c r="K175" s="22"/>
       <c r="L175" s="20"/>
       <c r="M175" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A176" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B176" s="9">
         <v>357</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D176" s="20" t="s">
         <v>15</v>
@@ -9544,32 +9556,34 @@
         <v>17</v>
       </c>
       <c r="G176" s="18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H176" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I176" s="18"/>
       <c r="J176" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K176" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L176" s="20"/>
+      <c r="L176" s="20" t="s">
+        <v>468</v>
+      </c>
       <c r="M176" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A177" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B177" s="9">
         <v>358</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D177" s="20" t="s">
         <v>15</v>
@@ -9581,14 +9595,14 @@
         <v>17</v>
       </c>
       <c r="G177" s="18" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H177" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I177" s="18"/>
       <c r="J177" s="18" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K177" s="22"/>
       <c r="L177" s="20"/>
@@ -9598,13 +9612,13 @@
     </row>
     <row r="178" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A178" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B178" s="9">
         <v>359</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D178" s="20" t="s">
         <v>15</v>
@@ -9616,7 +9630,7 @@
         <v>17</v>
       </c>
       <c r="G178" s="18" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>19</v>
@@ -9633,13 +9647,13 @@
     </row>
     <row r="179" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A179" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B179" s="9">
         <v>360</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D179" s="20" t="s">
         <v>15</v>
@@ -9651,30 +9665,30 @@
         <v>17</v>
       </c>
       <c r="G179" s="18" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H179" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I179" s="18"/>
       <c r="J179" s="18" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K179" s="22"/>
       <c r="L179" s="20"/>
       <c r="M179" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A180" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B180" s="9">
         <v>361</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D180" s="20" t="s">
         <v>15</v>
@@ -9686,7 +9700,7 @@
         <v>17</v>
       </c>
       <c r="G180" s="18" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H180" s="19" t="s">
         <v>19</v>
@@ -9703,13 +9717,13 @@
     </row>
     <row r="181" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A181" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B181" s="9">
         <v>362</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D181" s="20" t="s">
         <v>15</v>
@@ -9721,14 +9735,14 @@
         <v>17</v>
       </c>
       <c r="G181" s="18" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H181" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I181" s="18"/>
       <c r="J181" s="18" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K181" s="22"/>
       <c r="L181" s="20"/>
@@ -9738,13 +9752,13 @@
     </row>
     <row r="182" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A182" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B182" s="9">
         <v>363</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="D182" s="20" t="s">
         <v>15</v>
@@ -9756,14 +9770,14 @@
         <v>17</v>
       </c>
       <c r="G182" s="18" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H182" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I182" s="18"/>
-      <c r="J182" s="18" t="s">
-        <v>479</v>
+      <c r="J182" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="K182" s="22"/>
       <c r="L182" s="20"/>
@@ -9773,13 +9787,13 @@
     </row>
     <row r="183" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A183" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B183" s="9">
         <v>364</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D183" s="20" t="s">
         <v>15</v>
@@ -9791,30 +9805,34 @@
         <v>17</v>
       </c>
       <c r="G183" s="18" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H183" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I183" s="18"/>
-      <c r="J183" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K183" s="22"/>
-      <c r="L183" s="20"/>
+      <c r="J183" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="K183" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L183" s="20" t="s">
+        <v>485</v>
+      </c>
       <c r="M183" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A184" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B184" s="9">
         <v>365</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D184" s="20" t="s">
         <v>15</v>
@@ -9826,18 +9844,16 @@
         <v>17</v>
       </c>
       <c r="G184" s="18" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H184" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I184" s="18"/>
-      <c r="J184" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="K184" s="22" t="s">
-        <v>119</v>
-      </c>
+      <c r="J184" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K184" s="22"/>
       <c r="L184" s="20"/>
       <c r="M184" s="18" t="s">
         <v>21</v>
@@ -9845,13 +9861,13 @@
     </row>
     <row r="185" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A185" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B185" s="9">
         <v>366</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D185" s="20" t="s">
         <v>15</v>
@@ -9863,14 +9879,14 @@
         <v>17</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="H185" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I185" s="18"/>
-      <c r="J185" s="13" t="s">
-        <v>65</v>
+      <c r="J185" s="18" t="s">
+        <v>484</v>
       </c>
       <c r="K185" s="22"/>
       <c r="L185" s="20"/>
@@ -9880,13 +9896,13 @@
     </row>
     <row r="186" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A186" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B186" s="9">
         <v>367</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D186" s="20" t="s">
         <v>15</v>
@@ -9898,14 +9914,14 @@
         <v>17</v>
       </c>
       <c r="G186" s="18" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H186" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I186" s="18"/>
-      <c r="J186" s="18" t="s">
-        <v>484</v>
+      <c r="J186" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="K186" s="22"/>
       <c r="L186" s="20"/>
@@ -9915,13 +9931,13 @@
     </row>
     <row r="187" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A187" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B187" s="9">
         <v>368</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D187" s="20" t="s">
         <v>15</v>
@@ -9933,30 +9949,30 @@
         <v>17</v>
       </c>
       <c r="G187" s="18" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H187" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I187" s="18"/>
-      <c r="J187" s="13" t="s">
-        <v>65</v>
+      <c r="J187" s="18" t="s">
+        <v>484</v>
       </c>
       <c r="K187" s="22"/>
       <c r="L187" s="20"/>
       <c r="M187" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A188" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B188" s="9">
         <v>369</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D188" s="20" t="s">
         <v>15</v>
@@ -9968,30 +9984,30 @@
         <v>17</v>
       </c>
       <c r="G188" s="18" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H188" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I188" s="18"/>
-      <c r="J188" s="18" t="s">
-        <v>484</v>
+      <c r="J188" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="K188" s="22"/>
       <c r="L188" s="20"/>
       <c r="M188" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A189" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B189" s="9">
         <v>370</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D189" s="20" t="s">
         <v>15</v>
@@ -10003,7 +10019,7 @@
         <v>17</v>
       </c>
       <c r="G189" s="18" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H189" s="19" t="s">
         <v>19</v>
@@ -10015,18 +10031,18 @@
       <c r="K189" s="22"/>
       <c r="L189" s="20"/>
       <c r="M189" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A190" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B190" s="9">
         <v>371</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>495</v>
+        <v>60</v>
       </c>
       <c r="D190" s="20" t="s">
         <v>15</v>
@@ -10038,14 +10054,14 @@
         <v>17</v>
       </c>
       <c r="G190" s="18" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H190" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I190" s="18"/>
-      <c r="J190" s="13" t="s">
-        <v>65</v>
+      <c r="J190" s="18" t="s">
+        <v>471</v>
       </c>
       <c r="K190" s="22"/>
       <c r="L190" s="20"/>
@@ -10055,13 +10071,13 @@
     </row>
     <row r="191" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A191" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B191" s="9">
         <v>372</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D191" s="20" t="s">
         <v>15</v>
@@ -10073,7 +10089,7 @@
         <v>17</v>
       </c>
       <c r="G191" s="18" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H191" s="19" t="s">
         <v>19</v>
@@ -10085,18 +10101,18 @@
       <c r="K191" s="22"/>
       <c r="L191" s="20"/>
       <c r="M191" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A192" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B192" s="9">
         <v>373</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D192" s="20" t="s">
         <v>15</v>
@@ -10108,7 +10124,7 @@
         <v>17</v>
       </c>
       <c r="G192" s="18" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H192" s="19" t="s">
         <v>19</v>
@@ -10120,18 +10136,18 @@
       <c r="K192" s="22"/>
       <c r="L192" s="20"/>
       <c r="M192" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A193" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B193" s="9">
         <v>374</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D193" s="20" t="s">
         <v>15</v>
@@ -10143,7 +10159,7 @@
         <v>17</v>
       </c>
       <c r="G193" s="18" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H193" s="19" t="s">
         <v>19</v>
@@ -10155,18 +10171,18 @@
       <c r="K193" s="22"/>
       <c r="L193" s="20"/>
       <c r="M193" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" ht="30" customHeight="1" spans="1:13">
       <c r="A194" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B194" s="9">
         <v>375</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D194" s="11" t="s">
         <v>15</v>
@@ -10178,7 +10194,7 @@
         <v>17</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H194" s="14" t="s">
         <v>19</v>
@@ -10195,13 +10211,13 @@
     </row>
     <row r="195" ht="30" customHeight="1" spans="1:13">
       <c r="A195" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B195" s="9">
         <v>376</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>15</v>
@@ -10213,14 +10229,14 @@
         <v>17</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H195" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I195" s="13"/>
       <c r="J195" s="13" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K195" s="21"/>
       <c r="L195" s="11"/>
@@ -10230,7 +10246,7 @@
     </row>
     <row r="196" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A196" s="15" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B196" s="9">
         <v>377</v>
@@ -10248,14 +10264,14 @@
         <v>17</v>
       </c>
       <c r="G196" s="18" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H196" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I196" s="18"/>
       <c r="J196" s="18" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K196" s="22"/>
       <c r="L196" s="20"/>
@@ -10265,13 +10281,13 @@
     </row>
     <row r="197" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A197" s="15" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B197" s="9">
         <v>378</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D197" s="20" t="s">
         <v>15</v>
@@ -10283,14 +10299,14 @@
         <v>17</v>
       </c>
       <c r="G197" s="18" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H197" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I197" s="18"/>
       <c r="J197" s="18" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K197" s="22"/>
       <c r="L197" s="20"/>
@@ -10300,7 +10316,7 @@
     </row>
     <row r="198" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A198" s="15" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B198" s="9">
         <v>379</v>
@@ -10318,10 +10334,10 @@
         <v>17</v>
       </c>
       <c r="G198" s="18" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H198" s="19" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="I198" s="18"/>
       <c r="J198" s="13" t="s">
@@ -10335,7 +10351,7 @@
     </row>
     <row r="199" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A199" s="15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B199" s="9">
         <v>380</v>
@@ -10353,14 +10369,14 @@
         <v>17</v>
       </c>
       <c r="G199" s="18" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H199" s="19" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I199" s="18"/>
       <c r="J199" s="18" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K199" s="22"/>
       <c r="L199" s="20"/>
@@ -10370,13 +10386,13 @@
     </row>
     <row r="200" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A200" s="15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B200" s="9">
         <v>381</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D200" s="20" t="s">
         <v>15</v>
@@ -10388,14 +10404,14 @@
         <v>17</v>
       </c>
       <c r="G200" s="18" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H200" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I200" s="18"/>
       <c r="J200" s="18" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K200" s="22"/>
       <c r="L200" s="20"/>
@@ -10405,7 +10421,7 @@
     </row>
     <row r="201" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A201" s="15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B201" s="9">
         <v>382</v>
@@ -10423,10 +10439,10 @@
         <v>17</v>
       </c>
       <c r="G201" s="18" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H201" s="19" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I201" s="18"/>
       <c r="J201" s="13" t="s">
@@ -10440,13 +10456,13 @@
     </row>
     <row r="202" ht="30" customHeight="1" spans="1:13">
       <c r="A202" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B202" s="9">
         <v>383</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>15</v>
@@ -10458,13 +10474,13 @@
         <v>17</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H202" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I202" s="13" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J202" s="13"/>
       <c r="K202" s="21"/>
@@ -10475,13 +10491,13 @@
     </row>
     <row r="203" ht="30" customHeight="1" spans="1:13">
       <c r="A203" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B203" s="9">
         <v>384</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D203" s="11" t="s">
         <v>15</v>
@@ -10493,13 +10509,13 @@
         <v>17</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H203" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I203" s="13" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J203" s="13"/>
       <c r="K203" s="21"/>
@@ -10510,13 +10526,13 @@
     </row>
     <row r="204" ht="30" customHeight="1" spans="1:13">
       <c r="A204" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B204" s="9">
         <v>385</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>15</v>
@@ -10528,30 +10544,30 @@
         <v>17</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H204" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I204" s="13"/>
       <c r="J204" s="13" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K204" s="21"/>
       <c r="L204" s="11"/>
       <c r="M204" s="13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" ht="30" customHeight="1" spans="1:13">
       <c r="A205" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B205" s="9">
         <v>386</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>15</v>
@@ -10563,14 +10579,14 @@
         <v>17</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H205" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I205" s="13"/>
       <c r="J205" s="13" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K205" s="21"/>
       <c r="L205" s="11"/>
@@ -10580,13 +10596,13 @@
     </row>
     <row r="206" ht="30" customHeight="1" spans="1:13">
       <c r="A206" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B206" s="9">
         <v>387</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>15</v>
@@ -10598,7 +10614,7 @@
         <v>17</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H206" s="14" t="s">
         <v>19</v>
@@ -10615,13 +10631,13 @@
     </row>
     <row r="207" ht="30" customHeight="1" spans="1:13">
       <c r="A207" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B207" s="9">
         <v>388</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>15</v>
@@ -10633,7 +10649,7 @@
         <v>17</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H207" s="14" t="s">
         <v>19</v>
@@ -10650,13 +10666,13 @@
     </row>
     <row r="208" ht="30" customHeight="1" spans="1:13">
       <c r="A208" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B208" s="9">
         <v>389</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>15</v>
@@ -10668,14 +10684,14 @@
         <v>17</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H208" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I208" s="13"/>
       <c r="J208" s="13" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K208" s="21"/>
       <c r="L208" s="11"/>
@@ -10685,13 +10701,13 @@
     </row>
     <row r="209" ht="30" customHeight="1" spans="1:13">
       <c r="A209" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B209" s="9">
         <v>390</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D209" s="11" t="s">
         <v>15</v>
@@ -10703,7 +10719,7 @@
         <v>17</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H209" s="14" t="s">
         <v>19</v>
@@ -10720,13 +10736,13 @@
     </row>
     <row r="210" ht="30" customHeight="1" spans="1:13">
       <c r="A210" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B210" s="9">
         <v>391</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D210" s="11" t="s">
         <v>15</v>
@@ -10738,14 +10754,14 @@
         <v>17</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H210" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I210" s="13"/>
       <c r="J210" s="13" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K210" s="21"/>
       <c r="L210" s="11"/>
@@ -10755,13 +10771,13 @@
     </row>
     <row r="211" ht="30" customHeight="1" spans="1:13">
       <c r="A211" s="9" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B211" s="9">
         <v>392</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>15</v>
@@ -10773,14 +10789,14 @@
         <v>17</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H211" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K211" s="21"/>
       <c r="L211" s="11"/>
@@ -10790,13 +10806,13 @@
     </row>
     <row r="212" ht="30" customHeight="1" spans="1:13">
       <c r="A212" s="9" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B212" s="9">
         <v>393</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D212" s="11" t="s">
         <v>15</v>
@@ -10808,13 +10824,13 @@
         <v>17</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H212" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I212" s="13" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J212" s="13"/>
       <c r="K212" s="21"/>
@@ -10825,13 +10841,13 @@
     </row>
     <row r="213" ht="30" customHeight="1" spans="1:13">
       <c r="A213" s="9" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B213" s="9">
         <v>394</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D213" s="11" t="s">
         <v>15</v>
@@ -10843,13 +10859,13 @@
         <v>17</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H213" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I213" s="13" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J213" s="13"/>
       <c r="K213" s="21"/>
@@ -10860,13 +10876,13 @@
     </row>
     <row r="214" ht="30" customHeight="1" spans="1:13">
       <c r="A214" s="9" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B214" s="9">
         <v>395</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>15</v>
@@ -10878,7 +10894,7 @@
         <v>17</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H214" s="14" t="s">
         <v>19</v>
@@ -10895,13 +10911,13 @@
     </row>
     <row r="215" ht="30" customHeight="1" spans="1:13">
       <c r="A215" s="9" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B215" s="9">
         <v>396</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>15</v>
@@ -10913,13 +10929,13 @@
         <v>17</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H215" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I215" s="13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="J215" s="13"/>
       <c r="K215" s="21"/>
@@ -10930,13 +10946,13 @@
     </row>
     <row r="216" ht="30" customHeight="1" spans="1:13">
       <c r="A216" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B216" s="9">
         <v>397</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>15</v>
@@ -10948,14 +10964,14 @@
         <v>17</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H216" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I216" s="13"/>
       <c r="J216" s="13" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K216" s="21"/>
       <c r="L216" s="11"/>
@@ -10965,13 +10981,13 @@
     </row>
     <row r="217" ht="30" customHeight="1" spans="1:13">
       <c r="A217" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B217" s="9">
         <v>398</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D217" s="11" t="s">
         <v>15</v>
@@ -10983,13 +10999,13 @@
         <v>17</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H217" s="14" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I217" s="13" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="J217" s="13"/>
       <c r="K217" s="21"/>
@@ -11000,13 +11016,13 @@
     </row>
     <row r="218" ht="30" customHeight="1" spans="1:13">
       <c r="A218" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B218" s="9">
         <v>399</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>15</v>
@@ -11018,7 +11034,7 @@
         <v>17</v>
       </c>
       <c r="G218" s="13" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H218" s="14" t="s">
         <v>19</v>
@@ -11035,13 +11051,13 @@
     </row>
     <row r="219" ht="30" customHeight="1" spans="1:13">
       <c r="A219" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B219" s="9">
         <v>400</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>15</v>
@@ -11053,7 +11069,7 @@
         <v>17</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H219" s="14" t="s">
         <v>19</v>
@@ -11070,13 +11086,13 @@
     </row>
     <row r="220" ht="30" customHeight="1" spans="1:13">
       <c r="A220" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B220" s="9">
         <v>401</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>15</v>
@@ -11088,14 +11104,14 @@
         <v>17</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H220" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I220" s="13"/>
       <c r="J220" s="13" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K220" s="21"/>
       <c r="L220" s="11"/>
@@ -11105,13 +11121,13 @@
     </row>
     <row r="221" ht="30" customHeight="1" spans="1:13">
       <c r="A221" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B221" s="9">
         <v>402</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>15</v>
@@ -11123,14 +11139,14 @@
         <v>17</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H221" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I221" s="13"/>
       <c r="J221" s="13" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K221" s="21"/>
       <c r="L221" s="11"/>
@@ -11140,13 +11156,13 @@
     </row>
     <row r="222" ht="30" customHeight="1" spans="1:13">
       <c r="A222" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B222" s="9">
         <v>403</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>15</v>
@@ -11158,14 +11174,14 @@
         <v>17</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H222" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I222" s="13"/>
       <c r="J222" s="13" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K222" s="21"/>
       <c r="L222" s="11"/>
@@ -11175,13 +11191,13 @@
     </row>
     <row r="223" ht="30" customHeight="1" spans="1:13">
       <c r="A223" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B223" s="9">
         <v>404</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D223" s="11" t="s">
         <v>15</v>
@@ -11193,14 +11209,14 @@
         <v>17</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H223" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K223" s="21"/>
       <c r="L223" s="11"/>
@@ -11210,13 +11226,13 @@
     </row>
     <row r="224" ht="30" customHeight="1" spans="1:13">
       <c r="A224" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B224" s="9">
         <v>405</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>15</v>
@@ -11228,14 +11244,14 @@
         <v>17</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H224" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I224" s="13"/>
       <c r="J224" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K224" s="21"/>
       <c r="L224" s="11"/>
@@ -11245,13 +11261,13 @@
     </row>
     <row r="225" ht="30" customHeight="1" spans="1:13">
       <c r="A225" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B225" s="9">
         <v>406</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>15</v>
@@ -11263,13 +11279,13 @@
         <v>17</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H225" s="14" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="I225" s="13" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J225" s="13"/>
       <c r="K225" s="21"/>
@@ -11280,13 +11296,13 @@
     </row>
     <row r="226" ht="30" customHeight="1" spans="1:13">
       <c r="A226" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B226" s="9">
         <v>407</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>15</v>
@@ -11298,13 +11314,13 @@
         <v>17</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H226" s="14" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I226" s="13" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J226" s="13"/>
       <c r="K226" s="21"/>
@@ -11315,13 +11331,13 @@
     </row>
     <row r="227" ht="30" customHeight="1" spans="1:13">
       <c r="A227" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B227" s="9">
         <v>408</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>15</v>
@@ -11333,7 +11349,7 @@
         <v>17</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H227" s="14" t="s">
         <v>19</v>
@@ -11350,13 +11366,13 @@
     </row>
     <row r="228" ht="30" customHeight="1" spans="1:13">
       <c r="A228" s="9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B228" s="9">
         <v>409</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>15</v>
@@ -11368,7 +11384,7 @@
         <v>17</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H228" s="14" t="s">
         <v>19</v>
@@ -11385,13 +11401,13 @@
     </row>
     <row r="229" ht="30" customHeight="1" spans="1:13">
       <c r="A229" s="9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B229" s="9">
         <v>410</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>15</v>
@@ -11403,20 +11419,20 @@
         <v>17</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H229" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I229" s="13"/>
       <c r="J229" s="13" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K229" s="21" t="s">
         <v>119</v>
       </c>
       <c r="L229" s="11" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M229" s="13" t="s">
         <v>21</v>
@@ -11424,13 +11440,13 @@
     </row>
     <row r="230" ht="30" customHeight="1" spans="1:13">
       <c r="A230" s="9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B230" s="9">
         <v>411</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D230" s="11" t="s">
         <v>15</v>
@@ -11442,14 +11458,14 @@
         <v>17</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H230" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I230" s="13"/>
       <c r="J230" s="13" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K230" s="21"/>
       <c r="L230" s="11"/>
@@ -11459,13 +11475,13 @@
     </row>
     <row r="231" ht="30" customHeight="1" spans="1:13">
       <c r="A231" s="9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B231" s="9">
         <v>412</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>15</v>
@@ -11477,7 +11493,7 @@
         <v>17</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H231" s="14" t="s">
         <v>19</v>
@@ -11494,13 +11510,13 @@
     </row>
     <row r="232" ht="30" customHeight="1" spans="1:13">
       <c r="A232" s="9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B232" s="9">
         <v>413</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>15</v>
@@ -11512,7 +11528,7 @@
         <v>17</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H232" s="14" t="s">
         <v>19</v>

--- a/config/apicaseadmin.xlsx
+++ b/config/apicaseadmin.xlsx
@@ -36,7 +36,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -44,6 +44,21 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -57,22 +72,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,16 +87,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,22 +135,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
       <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,7 +199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +211,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +283,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,97 +325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,31 +355,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +434,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -452,8 +461,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,16 +486,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -551,7 +551,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
@@ -560,7 +560,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
@@ -569,115 +569,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,9 +1183,9 @@
   <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="$A123:$XFD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.25" defaultRowHeight="13.5"/>
@@ -3024,7 +3024,7 @@
       <c r="L25" s="11" t="n"/>
       <c r="M25" s="13" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,11 @@
       </c>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="20" t="n"/>
-      <c r="M35" s="18" t="n"/>
+      <c r="M35" s="18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="30" customFormat="1" customHeight="1" s="2">
       <c r="A36" s="15" t="inlineStr">
@@ -3794,7 +3798,7 @@
       </c>
       <c r="L36" s="20" t="inlineStr">
         <is>
-          <t>1836227785123697024</t>
+          <t>1838874776370680192</t>
         </is>
       </c>
       <c r="M36" s="18" t="inlineStr">
@@ -3864,7 +3868,11 @@
       </c>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="20" t="n"/>
-      <c r="M37" s="18" t="n"/>
+      <c r="M37" s="18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="30" customFormat="1" customHeight="1" s="2">
       <c r="A38" s="15" t="inlineStr">
@@ -4061,7 +4069,11 @@
       </c>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="20" t="n"/>
-      <c r="M40" s="18" t="n"/>
+      <c r="M40" s="18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="30" customFormat="1" customHeight="1" s="2">
       <c r="A41" s="15" t="inlineStr">
@@ -4129,7 +4141,7 @@
       </c>
       <c r="L41" s="20" t="inlineStr">
         <is>
-          <t>1836227819919643008</t>
+          <t>1838874824303186560</t>
         </is>
       </c>
       <c r="M41" s="18" t="inlineStr">
@@ -4199,7 +4211,11 @@
       </c>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="20" t="n"/>
-      <c r="M42" s="18" t="n"/>
+      <c r="M42" s="18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="30" customFormat="1" customHeight="1" s="2">
       <c r="A43" s="15" t="inlineStr">
@@ -4396,7 +4412,11 @@
       </c>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="20" t="n"/>
-      <c r="M45" s="18" t="n"/>
+      <c r="M45" s="18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="30" customFormat="1" customHeight="1" s="2">
       <c r="A46" s="15" t="inlineStr">
@@ -4464,7 +4484,7 @@
       </c>
       <c r="L46" s="20" t="inlineStr">
         <is>
-          <t>1836227854967247488</t>
+          <t>1838874875356254848</t>
         </is>
       </c>
       <c r="M46" s="18" t="inlineStr">
@@ -4534,7 +4554,11 @@
       </c>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="20" t="n"/>
-      <c r="M47" s="18" t="n"/>
+      <c r="M47" s="18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="30" customFormat="1" customHeight="1" s="2">
       <c r="A48" s="15" t="inlineStr">
@@ -4731,7 +4755,11 @@
       </c>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="20" t="n"/>
-      <c r="M50" s="18" t="n"/>
+      <c r="M50" s="18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="30" customFormat="1" customHeight="1" s="2">
       <c r="A51" s="15" t="inlineStr">
@@ -4794,7 +4822,11 @@
       </c>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="20" t="n"/>
-      <c r="M51" s="18" t="n"/>
+      <c r="M51" s="18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="30" customFormat="1" customHeight="1" s="2">
       <c r="A52" s="15" t="inlineStr">
@@ -4857,7 +4889,11 @@
       </c>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="20" t="n"/>
-      <c r="M52" s="18" t="n"/>
+      <c r="M52" s="18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="30" customFormat="1" customHeight="1" s="2">
       <c r="A53" s="15" t="inlineStr">
@@ -5065,7 +5101,7 @@
       <c r="L55" s="11" t="n"/>
       <c r="M55" s="13" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -8869,7 +8905,7 @@
       <c r="L109" s="11" t="n"/>
       <c r="M109" s="13" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -8939,7 +8975,7 @@
       </c>
       <c r="L110" s="11" t="inlineStr">
         <is>
-          <t>1836228389975888384</t>
+          <t>1838875392312610944</t>
         </is>
       </c>
       <c r="M110" s="13" t="inlineStr">
@@ -9617,7 +9653,7 @@
       </c>
       <c r="L120" s="11" t="inlineStr">
         <is>
-          <t>1836228481344606720</t>
+          <t>1838875509568573440</t>
         </is>
       </c>
       <c r="M120" s="13" t="inlineStr">
@@ -9823,7 +9859,7 @@
       <c r="L123" s="11" t="n"/>
       <c r="M123" s="13" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -9893,7 +9929,7 @@
       </c>
       <c r="L124" s="11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="M124" s="13" t="inlineStr">
@@ -10032,7 +10068,7 @@
       <c r="L126" s="11" t="n"/>
       <c r="M126" s="13" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -10099,7 +10135,7 @@
       <c r="L127" s="11" t="n"/>
       <c r="M127" s="13" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10741,7 @@
       </c>
       <c r="L136" s="20" t="inlineStr">
         <is>
-          <t>1836228561038185088</t>
+          <t>1838875599966016128</t>
         </is>
       </c>
       <c r="M136" s="18" t="inlineStr">
@@ -12120,7 +12156,7 @@
       </c>
       <c r="L157" s="11" t="inlineStr">
         <is>
-          <t>1836228680406274432</t>
+          <t>1838875723293528064</t>
         </is>
       </c>
       <c r="M157" s="13" t="inlineStr">
@@ -12659,7 +12695,11 @@
       </c>
       <c r="K165" s="21" t="n"/>
       <c r="L165" s="11" t="n"/>
-      <c r="M165" s="13" t="n"/>
+      <c r="M165" s="13" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="166" ht="30" customHeight="1" s="3">
       <c r="A166" s="9" t="inlineStr">
@@ -12861,7 +12901,7 @@
       </c>
       <c r="L168" s="11" t="inlineStr">
         <is>
-          <t>1836228726612529408</t>
+          <t>1838875785236811776</t>
         </is>
       </c>
       <c r="M168" s="13" t="inlineStr">
@@ -13137,7 +13177,7 @@
       </c>
       <c r="L172" s="11" t="inlineStr">
         <is>
-          <t>1836228753456075008</t>
+          <t>1838875806040559872</t>
         </is>
       </c>
       <c r="M172" s="13" t="inlineStr">
@@ -13413,7 +13453,7 @@
       </c>
       <c r="L176" s="20" t="inlineStr">
         <is>
-          <t>1836228778687205760</t>
+          <t>1838875833838604928</t>
         </is>
       </c>
       <c r="M176" s="18" t="inlineStr">
@@ -13898,7 +13938,7 @@
       </c>
       <c r="L183" s="20" t="inlineStr">
         <is>
-          <t>1836228830042264192</t>
+          <t>1838875886535840128</t>
         </is>
       </c>
       <c r="M183" s="18" t="inlineStr">
@@ -16988,7 +17028,7 @@
       </c>
       <c r="L229" s="11" t="inlineStr">
         <is>
-          <t>1836229089703235584</t>
+          <t>1838876164165210112</t>
         </is>
       </c>
       <c r="M229" s="13" t="inlineStr">

--- a/config/apicaseadmin.xlsx
+++ b/config/apicaseadmin.xlsx
@@ -2957,7 +2957,7 @@
       <c r="L24" s="11" t="n"/>
       <c r="M24" s="13" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       <c r="L26" s="20" t="n"/>
       <c r="M26" s="18" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="L36" s="20" t="inlineStr">
         <is>
-          <t>1838874776370680192</t>
+          <t>1838960734302638720</t>
         </is>
       </c>
       <c r="M36" s="18" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="L41" s="20" t="inlineStr">
         <is>
-          <t>1838874824303186560</t>
+          <t>1838960779030696576</t>
         </is>
       </c>
       <c r="M41" s="18" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="L46" s="20" t="inlineStr">
         <is>
-          <t>1838874875356254848</t>
+          <t>1838960819262460544</t>
         </is>
       </c>
       <c r="M46" s="18" t="inlineStr">
@@ -5101,7 +5101,7 @@
       <c r="L55" s="11" t="n"/>
       <c r="M55" s="13" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="L110" s="11" t="inlineStr">
         <is>
-          <t>1838875392312610944</t>
+          <t>1838961362206724096</t>
         </is>
       </c>
       <c r="M110" s="13" t="inlineStr">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="L120" s="11" t="inlineStr">
         <is>
-          <t>1838875509568573440</t>
+          <t>1838961456981217408</t>
         </is>
       </c>
       <c r="M120" s="13" t="inlineStr">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="L124" s="11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="M124" s="13" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L136" s="20" t="inlineStr">
         <is>
-          <t>1838875599966016128</t>
+          <t>1838961546170700160</t>
         </is>
       </c>
       <c r="M136" s="18" t="inlineStr">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="L157" s="11" t="inlineStr">
         <is>
-          <t>1838875723293528064</t>
+          <t>1838961667602387328</t>
         </is>
       </c>
       <c r="M157" s="13" t="inlineStr">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="L168" s="11" t="inlineStr">
         <is>
-          <t>1838875785236811776</t>
+          <t>1838961728337711104</t>
         </is>
       </c>
       <c r="M168" s="13" t="inlineStr">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="L172" s="11" t="inlineStr">
         <is>
-          <t>1838875806040559872</t>
+          <t>1838961748520702592</t>
         </is>
       </c>
       <c r="M172" s="13" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="L176" s="20" t="inlineStr">
         <is>
-          <t>1838875833838604928</t>
+          <t>1838961776234860928</t>
         </is>
       </c>
       <c r="M176" s="18" t="inlineStr">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="L183" s="20" t="inlineStr">
         <is>
-          <t>1838875886535840128</t>
+          <t>1838961820610597504</t>
         </is>
       </c>
       <c r="M183" s="18" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="L229" s="11" t="inlineStr">
         <is>
-          <t>1838876164165210112</t>
+          <t>1838962078627402112</t>
         </is>
       </c>
       <c r="M229" s="13" t="inlineStr">
